--- a/medicine/Mort/Terrorisme_en_2010/Terrorisme_en_2010.xlsx
+++ b/medicine/Mort/Terrorisme_en_2010/Terrorisme_en_2010.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -495,7 +507,7 @@
 2013
 2014
 ►►
-Durant l'année 2010, le nombre de victimes d'attentats est toujours en baisse. Il y a eu 7 697 victimes pour 4 819 attentats[1].
+Durant l'année 2010, le nombre de victimes d'attentats est toujours en baisse. Il y a eu 7 697 victimes pour 4 819 attentats.
 </t>
         </is>
       </c>
@@ -526,78 +538,457 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier, Pakistan : Au moins 96 morts et 36 blessés dans un attentat à la voiture piégée sur un terrain de volley-ball où se déroulait un match dans le nord-ouest[2].
-8 janvier, Angola : 1 mort et 9 blessés dans l'attaque du bus de l'équipe nationale de football togolaise à Cabinda. Le Front de libération de l'enclave de Cabinda revendique l'attaque[3].
-25 janvier, Irak : 41 morts et 110 blessés dans un triple attentat à la voiture piégée près d'un hôtel à Bagdad[4].
-26 janvier, Irak : 21 morts et 85 blessés dans un attentat à la voiture piégée contre un laboratoire à Bagdad[5].
-30 janvier, Pakistan : 16 morts et 20 blessés dans un attentat suicide à Khar[6].
-Février
-1er février, Irak : 54 morts et 117 blessés dans un attentat à la voiture piégée à Bagdad[7].
-3 février, Pakistan : 10 morts et 70 blessés dans un attentat à la bombe dans le Bas-Dir[8].
-3 février, Irak : 20 morts et 50 blessés dans un attentat suicide à Kerbala[9].
-5 février, Irak : 40 morts et 140 blessés dans un double attentat suicide à Kerbala[10].
-5 février, Pakistan : 33 morts et 170 blessés dans une double explosion à Karachi[11].
-10 février, Pakistan : 12 morts et 5 blessés dans un attentat suicide à Khyber visant des policiers[12].
-11 février, Pakistan : 12 morts et 20 blessés dans un double attentat à la bombe à Bannu visant des policiers[13].
-13 février, Inde : 9 morts et 57 blessés dans un attentat à la bombe au "German Bakery", un célèbre café de la ville de Pune. Le café et ses alentours sont entièrement soufflé[14].
-18 février, Pakistan : 41 morts et 60 blessés dans un double attentat suicide à Khyber[15].
-Mars
-3 mars, Irak : 33 morts et 55 blessés dans un double attentat suicide à Bakouba font[16].
-4 mars, Irak : 17 morts et 35 blessés dans 3 attaques à Bagdad[17].
-8 mars, Pakistan : 13 morts et 60 blessés dans un attentat suicide à Lahore[18].
-12 mars, Pakistan : 57 morts et 100 blessés dans un double attentat suicide à Lahore font[19].
-13 mars, Pakistan : 10 morts et 37 blessés dans un attentat suicide à Mingora contre un checkpoint[20].
-13 mars, Afghanistan. 37 et 46 blessés dans une série d'attentats à la bombe à Kandahar[21].
-24 mars, Colombie : 9 morts et une cinquantaine de blessés dans un attentat à la voiture piégée à Buenaventura[22].
-26 mars, Irak : 52 morts et 65 blessés dans un double attentat à la bombe à Khalis[23].
-29 mars, Russie : Deux attentats-suicides dans le métro moscovite font 39 morts et 102 blessés[24].
-Avril
-3 avril, Irak : un homme armée tue 25 personnes au Sud de Bagdad[25].
-4 avril, Irak : une série d'attentats à l'explosif à Bagdad fait 42 morts et 224 blessés[26].
-5 avril, Pakistan : un attentat contre l'ambassade américaine à Peshawar fait 50 morts et 100 blessés[27].
-6 avril, Irak : une série d'attentats à l'explosif à Bagdad fait 35 morts et 130 blessés[28].
-16 avril, Pakistan : un attentat suicide dans un hôpital à Quetta fait 10 morts et 35 blessés[29].
-17 avril, Pakistan : un double attentat suicide à Kohat fait 40 morts et 60 blessés[30].
-18 avril, Pakistan : un attentat à la voiture piégée à Kohat fait 7 morts et 20 blessés[31].
-19 avril, Pakistan : un attentat suicide à Peshawar fait 23 morts et de nombreux blessés[32].
-23 avril, Irak : une série d'attentats à la bombe à Bagdad visant la communauté chiite fait 58 morts et 118 blessés[33].
-Mai
-1er mai, Somalie : deux explosions dans une mosquée à Mogadiscio font 30 morts et 70 blessés[34].
-10 mai, Irak : une série d'attaques en Irak fait 100 morts et 350 blessés[35].
-14 mai, Irak : un attentat suicide à la voiture piégée à Tal Afar fait 25 morts et 100 blessés[36].
-17 mai, Inde : au moins 11 policiers et 24 civils tués dans un attentat de la rébellion naxalite contre un bus dans le district de Dantewada (État du Chhattisgarh)[37].
-28 mai, Inde : le déraillement d'un train par un groupe de la rébellion naxalite au Bengale-Occidental faisant 148 morts[38].
-28 mai, Pakistan : Des hommes armés attaquent deux mosquées simultanément à Lahore faisant plus de 80 morts[39].
-Juin
-10 juin, Afghanistan. Un attentat à la bombe à Kandahar durant un mariage fait 40 morts et 70 blessés[40].
-Juillet
-1er juillet, Pakistan : Deux attentats suicides simultanés à Lahore dans un tombeau d'un saint soufi font 42 morts et 175 blessés[41].
-7 juillet, Irak : une série d'attentats contre des pèlerins Chiites à Bagdad fait 33 morts et plus de 100 blessés[42].
-9 juillet, Pakistan : un attentat suicide dans le village de Yakaghund fait 102 morts et 115 blessés[43],[44]
-11 juillet, Ouganda : deux attentats à Kampala font au moins 74 tués[45].
-14 juillet, Algérie : quatre militaires tués et 13 autres blessés en Kabylie à la suite de l'explosion de quatre bombes[46].
-15 juillet, Pakistan : un attentat suicide fait de 5 à 7 morts et une quarantaine de blessés dans la vallée de Swat[47].
-15 juillet, Iran : 26 personnes tués et 300 autres blessées dont des Gardiens de la Révolution dans deux attentats suicide visant une mosquée chiite à Zahedan[48].
-15 juillet, Irak : 14 tués et 32 blessés dans 3 attentats à la bombe[49].
-Août
-17 août, Irak : un attentat à la bombe à Bagdad contre un centre de recrutement de l'armée fait 59 mort et 100 blessés[50].
-Septembre
-1er septembre, Pakistan : un triple attentat à la bombe à Lahore, visant une procession chiite, fait 25 morts et 170 blessés[51].
-3 septembre, Pakistan : un attentat à Quetta contre une manifestation chiite fait 57 morts et près de 200 blessés[52].
-Octobre
-1er octobre, Nigeria. Un double attentat à la voiture piégée lors des cérémonies du cinquantenaire de l'indépendance fait 12 morts à Abuja
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier, Pakistan : Au moins 96 morts et 36 blessés dans un attentat à la voiture piégée sur un terrain de volley-ball où se déroulait un match dans le nord-ouest.
+8 janvier, Angola : 1 mort et 9 blessés dans l'attaque du bus de l'équipe nationale de football togolaise à Cabinda. Le Front de libération de l'enclave de Cabinda revendique l'attaque.
+25 janvier, Irak : 41 morts et 110 blessés dans un triple attentat à la voiture piégée près d'un hôtel à Bagdad.
+26 janvier, Irak : 21 morts et 85 blessés dans un attentat à la voiture piégée contre un laboratoire à Bagdad.
+30 janvier, Pakistan : 16 morts et 20 blessés dans un attentat suicide à Khar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er février, Irak : 54 morts et 117 blessés dans un attentat à la voiture piégée à Bagdad.
+3 février, Pakistan : 10 morts et 70 blessés dans un attentat à la bombe dans le Bas-Dir.
+3 février, Irak : 20 morts et 50 blessés dans un attentat suicide à Kerbala.
+5 février, Irak : 40 morts et 140 blessés dans un double attentat suicide à Kerbala.
+5 février, Pakistan : 33 morts et 170 blessés dans une double explosion à Karachi.
+10 février, Pakistan : 12 morts et 5 blessés dans un attentat suicide à Khyber visant des policiers.
+11 février, Pakistan : 12 morts et 20 blessés dans un double attentat à la bombe à Bannu visant des policiers.
+13 février, Inde : 9 morts et 57 blessés dans un attentat à la bombe au "German Bakery", un célèbre café de la ville de Pune. Le café et ses alentours sont entièrement soufflé.
+18 février, Pakistan : 41 morts et 60 blessés dans un double attentat suicide à Khyber.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 mars, Irak : 33 morts et 55 blessés dans un double attentat suicide à Bakouba font.
+4 mars, Irak : 17 morts et 35 blessés dans 3 attaques à Bagdad.
+8 mars, Pakistan : 13 morts et 60 blessés dans un attentat suicide à Lahore.
+12 mars, Pakistan : 57 morts et 100 blessés dans un double attentat suicide à Lahore font.
+13 mars, Pakistan : 10 morts et 37 blessés dans un attentat suicide à Mingora contre un checkpoint.
+13 mars, Afghanistan. 37 et 46 blessés dans une série d'attentats à la bombe à Kandahar.
+24 mars, Colombie : 9 morts et une cinquantaine de blessés dans un attentat à la voiture piégée à Buenaventura.
+26 mars, Irak : 52 morts et 65 blessés dans un double attentat à la bombe à Khalis.
+29 mars, Russie : Deux attentats-suicides dans le métro moscovite font 39 morts et 102 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 avril, Irak : un homme armée tue 25 personnes au Sud de Bagdad.
+4 avril, Irak : une série d'attentats à l'explosif à Bagdad fait 42 morts et 224 blessés.
+5 avril, Pakistan : un attentat contre l'ambassade américaine à Peshawar fait 50 morts et 100 blessés.
+6 avril, Irak : une série d'attentats à l'explosif à Bagdad fait 35 morts et 130 blessés.
+16 avril, Pakistan : un attentat suicide dans un hôpital à Quetta fait 10 morts et 35 blessés.
+17 avril, Pakistan : un double attentat suicide à Kohat fait 40 morts et 60 blessés.
+18 avril, Pakistan : un attentat à la voiture piégée à Kohat fait 7 morts et 20 blessés.
+19 avril, Pakistan : un attentat suicide à Peshawar fait 23 morts et de nombreux blessés.
+23 avril, Irak : une série d'attentats à la bombe à Bagdad visant la communauté chiite fait 58 morts et 118 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er mai, Somalie : deux explosions dans une mosquée à Mogadiscio font 30 morts et 70 blessés.
+10 mai, Irak : une série d'attaques en Irak fait 100 morts et 350 blessés.
+14 mai, Irak : un attentat suicide à la voiture piégée à Tal Afar fait 25 morts et 100 blessés.
+17 mai, Inde : au moins 11 policiers et 24 civils tués dans un attentat de la rébellion naxalite contre un bus dans le district de Dantewada (État du Chhattisgarh).
+28 mai, Inde : le déraillement d'un train par un groupe de la rébellion naxalite au Bengale-Occidental faisant 148 morts.
+28 mai, Pakistan : Des hommes armés attaquent deux mosquées simultanément à Lahore faisant plus de 80 morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10 juin, Afghanistan. Un attentat à la bombe à Kandahar durant un mariage fait 40 morts et 70 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juillet, Pakistan : Deux attentats suicides simultanés à Lahore dans un tombeau d'un saint soufi font 42 morts et 175 blessés.
+7 juillet, Irak : une série d'attentats contre des pèlerins Chiites à Bagdad fait 33 morts et plus de 100 blessés.
+9 juillet, Pakistan : un attentat suicide dans le village de Yakaghund fait 102 morts et 115 blessés,
+11 juillet, Ouganda : deux attentats à Kampala font au moins 74 tués.
+14 juillet, Algérie : quatre militaires tués et 13 autres blessés en Kabylie à la suite de l'explosion de quatre bombes.
+15 juillet, Pakistan : un attentat suicide fait de 5 à 7 morts et une quarantaine de blessés dans la vallée de Swat.
+15 juillet, Iran : 26 personnes tués et 300 autres blessées dont des Gardiens de la Révolution dans deux attentats suicide visant une mosquée chiite à Zahedan.
+15 juillet, Irak : 14 tués et 32 blessés dans 3 attentats à la bombe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17 août, Irak : un attentat à la bombe à Bagdad contre un centre de recrutement de l'armée fait 59 mort et 100 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er septembre, Pakistan : un triple attentat à la bombe à Lahore, visant une procession chiite, fait 25 morts et 170 blessés.
+3 septembre, Pakistan : un attentat à Quetta contre une manifestation chiite fait 57 morts et près de 200 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er octobre, Nigeria. Un double attentat à la voiture piégée lors des cérémonies du cinquantenaire de l'indépendance fait 12 morts à Abuja
 3 octobre, Algérie : au moins 5 militaires tués dans l’explosion de bombes artisanales à Zekri, près de Tizi Ouzou
-31 octobre, Turquie : un attentat suicide à Istanbul fait 32 blessés dont 15 policiers[53].
-31 octobre, Irak : un attentat à la cathédrale de Bagdad[54].
-Novembre
-6 novembre, Pakistan : un attentat suicide dans une mosquée à Darra Adam Khel fait 72 morts et 20 blessés[55].
-12 novembre, Pakistan : un attentat à la bombe contre le quartier-général de la police anti-terroriste à Karachi fait 20 mort et 100 blessés[56].
-Décembre
-6 décembre, Pakistan : un attentat suicide à Ghalanai fait 40 morts[57].
-11 décembre, Afghanistan : un engin explosif placé sur la route à Khanashin dans la province d'Helmand fait 15 morts[58].
-15 décembre, Iran : un attentat suicide près d'un mosquée à Chabahar fait 39 morts[59].
-25 décembre, Pakistan : un attentat suicide à Kʰar fait 40 morts[60].</t>
+31 octobre, Turquie : un attentat suicide à Istanbul fait 32 blessés dont 15 policiers.
+31 octobre, Irak : un attentat à la cathédrale de Bagdad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6 novembre, Pakistan : un attentat suicide dans une mosquée à Darra Adam Khel fait 72 morts et 20 blessés.
+12 novembre, Pakistan : un attentat à la bombe contre le quartier-général de la police anti-terroriste à Karachi fait 20 mort et 100 blessés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2010</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6 décembre, Pakistan : un attentat suicide à Ghalanai fait 40 morts.
+11 décembre, Afghanistan : un engin explosif placé sur la route à Khanashin dans la province d'Helmand fait 15 morts.
+15 décembre, Iran : un attentat suicide près d'un mosquée à Chabahar fait 39 morts.
+25 décembre, Pakistan : un attentat suicide à Kʰar fait 40 morts.</t>
         </is>
       </c>
     </row>
